--- a/data/PackageDefinedConfigurations.xlsx
+++ b/data/PackageDefinedConfigurations.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Documents/xenSplittingService/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="10560" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -346,7 +346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
